--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332652.1167978874</v>
+        <v>258173.3733381632</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3066682.762492665</v>
+        <v>714286.6128340091</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14484967.69603912</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6401075.704640867</v>
+        <v>7682462.365838168</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>229.7918132822717</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7293992974318</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7293992974318</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.7293992974318</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>29.45648664699747</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7293992974318</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>59.53643965159095</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>21.94182076836101</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>372.5524694572394</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>29.81855126207272</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>135.7293992974318</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974318</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>135.7293992974318</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>135.7293992974318</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>60.36402868517425</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>176.7887766196724</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.7293992974318</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60.09378870120875</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>183.8632555178686</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.5504549011779</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>95.20932986586818</v>
       </c>
       <c r="U9" t="n">
-        <v>135.7293992974318</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>135.7293992974318</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>60.36402868517423</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60.09378870120875</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>135.7293992974318</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>208.552253223164</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>29.81855126207263</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>135.7293992974317</v>
+        <v>42.49868757850509</v>
       </c>
       <c r="I11" t="n">
-        <v>135.7293992974317</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.7489014770761</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>119.5504549011778</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>135.7293992974317</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>135.7293992974317</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>135.7293992974317</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>81.39848696832995</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>317.2061767062233</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>135.7293992974317</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>119.5504549011778</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>135.7293992974317</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>135.7293992974317</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>135.7293992974317</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>81.39848696832995</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.0380364259622</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -1900,19 +1900,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>41.45113763319958</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>95.9550838187259</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1931,10 +1931,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>99.65930172433372</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.1125703724763</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>320.65972475321</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>78.50061111216475</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.19805636032395</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>29.19076188874264</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>90.87914143716708</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
-        <v>14.50387586212008</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>26.10026801800838</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2338,7 +2338,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>310.9564280363217</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25.5578537124857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>361.6315666010505</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>129.7741566752433</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>11.07424702199343</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X28" t="n">
-        <v>125.2040305762913</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>135.0421320511395</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>97.19489173456149</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -2873,19 +2873,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>142.658146955269</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.64139690916309</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>30.84765070733269</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>13.7382716373767</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>288.5937880520908</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,10 +3116,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>52.72717350431945</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>284.3183371157911</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>81.05737926018561</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.94249248460141</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -3334,7 +3334,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4995939034842342</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3362,10 +3362,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>8.603622175584347</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>11.57315202520413</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>284.3183371157911</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>42.49868757850501</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>120.8391135758914</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,13 +3587,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>85.20029420312638</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>233.4887147438305</v>
       </c>
       <c r="V40" t="n">
-        <v>242.4203156776819</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>30.27170527353985</v>
       </c>
       <c r="X41" t="n">
-        <v>88.94385587348096</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.6707619327332</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>225.5411128215374</v>
+        <v>47.25903659464921</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4115,10 +4115,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>69.33826150006736</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>91.93139158138763</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.85835194379454</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="C2" t="n">
-        <v>10.85835194379454</v>
+        <v>1041.746883477234</v>
       </c>
       <c r="D2" t="n">
-        <v>10.85835194379454</v>
+        <v>668.9229187044577</v>
       </c>
       <c r="E2" t="n">
-        <v>10.85835194379454</v>
+        <v>274.1371988105646</v>
       </c>
       <c r="F2" t="n">
-        <v>10.85835194379454</v>
+        <v>274.1371988105646</v>
       </c>
       <c r="G2" t="n">
-        <v>10.85835194379454</v>
+        <v>274.1371988105646</v>
       </c>
       <c r="H2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>217.2290015210577</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>217.2290015210577</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>351.6011068255151</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>485.9732121299726</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
-        <v>542.9175971897271</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P2" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q2" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>405.8171938589879</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U2" t="n">
-        <v>405.8171938589879</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V2" t="n">
-        <v>268.7167905282488</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W2" t="n">
-        <v>131.6163871975096</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="X2" t="n">
-        <v>10.85835194379454</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.85835194379454</v>
+        <v>1423.680642144427</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>208.9325216231946</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>208.9325216231946</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>208.9325216231946</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>208.9325216231946</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9325216231946</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>179.1784947070355</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>79.24063725373355</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>71.11249847690068</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>71.11249847690068</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L3" t="n">
-        <v>71.11249847690068</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M3" t="n">
-        <v>139.8012812763547</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N3" t="n">
-        <v>274.1733865808121</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>408.5454918852696</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>483.1333282846729</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>346.0329249539337</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>346.0329249539337</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U3" t="n">
-        <v>346.0329249539337</v>
+        <v>1699.590396408797</v>
       </c>
       <c r="V3" t="n">
-        <v>346.0329249539337</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="W3" t="n">
-        <v>346.0329249539337</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>346.0329249539337</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>346.0329249539337</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843799</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658997</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>479.9491134615893</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>504.3802558434161</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>367.2798525126769</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>230.1794491819378</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>208.015993860361</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>208.015993860361</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V4" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.0785040241021</v>
+        <v>418.3398818155825</v>
       </c>
       <c r="C5" t="n">
-        <v>178.0785040241021</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
-        <v>178.0785040241021</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>178.0785040241021</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>178.0785040241021</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>178.0785040241021</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>145.230457248252</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>279.6025625527094</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>413.9746678571669</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>542.9175971897271</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
-        <v>542.9175971897271</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P5" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q5" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>452.2793106855804</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>315.1789073548413</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>315.1789073548413</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>315.1789073548413</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V5" t="n">
-        <v>315.1789073548413</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="W5" t="n">
-        <v>315.1789073548413</v>
+        <v>1205.925276757764</v>
       </c>
       <c r="X5" t="n">
-        <v>315.1789073548413</v>
+        <v>1205.925276757764</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.0785040241021</v>
+        <v>812.3834213336016</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.85835194379454</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C6" t="n">
-        <v>10.85835194379454</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D6" t="n">
-        <v>10.85835194379454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E6" t="n">
-        <v>10.85835194379454</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F6" t="n">
-        <v>10.85835194379454</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>10.85835194379454</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>10.85835194379454</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>10.85835194379454</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M6" t="n">
-        <v>10.85835194379454</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N6" t="n">
-        <v>139.8012812763547</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
-        <v>274.1733865808121</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852696</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>483.1333282846729</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>346.0329249539337</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T6" t="n">
-        <v>208.9325216231946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U6" t="n">
-        <v>147.9587552745337</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>147.9587552745337</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="W6" t="n">
-        <v>147.9587552745337</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X6" t="n">
-        <v>147.9587552745337</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.85835194379454</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>482.2168005218393</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>345.1163971911002</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L7" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>542.917597189727</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>542.917597189727</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S7" t="n">
-        <v>542.917597189727</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T7" t="n">
-        <v>542.917597189727</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147.9587552745337</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C8" t="n">
-        <v>10.85835194379454</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D8" t="n">
-        <v>10.85835194379454</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E8" t="n">
-        <v>10.85835194379454</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>10.85835194379454</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>82.85689621660021</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>179.7411328942751</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>314.1132381987326</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>448.4853435031901</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>448.4853435031901</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4853435031901</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>1660.607008654896</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>1660.607008654896</v>
       </c>
       <c r="X8" t="n">
-        <v>405.8171938589879</v>
+        <v>1660.607008654896</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.0591586052728</v>
+        <v>1267.065153230734</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>614.1782368302144</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85835194379454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>205.4846037813581</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>339.8567090858156</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>408.5454918852696</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>408.5454918852696</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>483.1333282846729</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>483.1333282846729</v>
+        <v>1852.242277804148</v>
       </c>
       <c r="U9" t="n">
-        <v>346.0329249539337</v>
+        <v>1633.747485402458</v>
       </c>
       <c r="V9" t="n">
-        <v>208.9325216231946</v>
+        <v>1405.351862850792</v>
       </c>
       <c r="W9" t="n">
-        <v>71.83211829245539</v>
+        <v>1164.035994084102</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>966.1190059618965</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>773.5976796114753</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.917597189727</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="C10" t="n">
-        <v>542.917597189727</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="D10" t="n">
-        <v>542.917597189727</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="E10" t="n">
-        <v>542.917597189727</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F10" t="n">
-        <v>482.2168005218393</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
-        <v>345.1163971911002</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L10" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M10" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O10" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.917597189727</v>
+        <v>363.4246597075721</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>315.1789073548412</v>
+        <v>1482.810319272953</v>
       </c>
       <c r="C11" t="n">
-        <v>315.1789073548412</v>
+        <v>1482.810319272953</v>
       </c>
       <c r="D11" t="n">
-        <v>315.1789073548412</v>
+        <v>1482.810319272953</v>
       </c>
       <c r="E11" t="n">
-        <v>315.1789073548412</v>
+        <v>1088.02459937906</v>
       </c>
       <c r="F11" t="n">
-        <v>315.1789073548412</v>
+        <v>673.8734086892305</v>
       </c>
       <c r="G11" t="n">
-        <v>285.0591586052728</v>
+        <v>257.7694221434185</v>
       </c>
       <c r="H11" t="n">
-        <v>147.9587552745337</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I11" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K11" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>413.9746678571668</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
-        <v>542.917597189727</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P11" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q11" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>452.2793106855803</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>452.2793106855803</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U11" t="n">
-        <v>452.2793106855803</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V11" t="n">
-        <v>315.1789073548412</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W11" t="n">
-        <v>315.1789073548412</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X11" t="n">
-        <v>315.1789073548412</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y11" t="n">
-        <v>315.1789073548412</v>
+        <v>1876.853858790972</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.85835194379454</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C12" t="n">
-        <v>10.85835194379454</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D12" t="n">
-        <v>10.85835194379454</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>205.4846037813581</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>205.4846037813581</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>205.4846037813581</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>274.1733865808121</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O12" t="n">
-        <v>408.5454918852695</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>542.917597189727</v>
+        <v>2069.143207608369</v>
       </c>
       <c r="S12" t="n">
-        <v>542.917597189727</v>
+        <v>1916.343720621109</v>
       </c>
       <c r="T12" t="n">
-        <v>422.159561936012</v>
+        <v>1727.658616787095</v>
       </c>
       <c r="U12" t="n">
-        <v>285.0591586052728</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V12" t="n">
-        <v>147.9587552745337</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W12" t="n">
-        <v>10.85835194379454</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X12" t="n">
-        <v>10.85835194379454</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.85835194379454</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K13" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L13" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O13" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P13" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>230.1794491819377</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>93.07904585119854</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>10.85835194379454</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V13" t="n">
-        <v>10.85835194379454</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.85835194379454</v>
+        <v>744.3682942696275</v>
       </c>
       <c r="C14" t="n">
-        <v>10.85835194379454</v>
+        <v>362.4345356024349</v>
       </c>
       <c r="D14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K14" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L14" t="n">
-        <v>10.85835194379454</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M14" t="n">
-        <v>139.8012812763547</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N14" t="n">
-        <v>274.1733865808121</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O14" t="n">
-        <v>408.5454918852695</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P14" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q14" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>542.917597189727</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T14" t="n">
-        <v>422.159561936012</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U14" t="n">
-        <v>285.0591586052728</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V14" t="n">
-        <v>147.9587552745337</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W14" t="n">
-        <v>10.85835194379454</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X14" t="n">
-        <v>10.85835194379454</v>
+        <v>1531.953689211809</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.85835194379454</v>
+        <v>1138.411833787647</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.9587552745337</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C15" t="n">
-        <v>10.85835194379454</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D15" t="n">
-        <v>10.85835194379454</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E15" t="n">
-        <v>10.85835194379454</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F15" t="n">
-        <v>10.85835194379454</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>139.8012812763547</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L15" t="n">
-        <v>139.8012812763547</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M15" t="n">
-        <v>274.1733865808121</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N15" t="n">
-        <v>408.5454918852695</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O15" t="n">
-        <v>542.917597189727</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P15" t="n">
-        <v>542.917597189727</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>542.917597189727</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>542.917597189727</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>542.917597189727</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>422.159561936012</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X15" t="n">
-        <v>285.0591586052728</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.9587552745337</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K16" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L16" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O16" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P16" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S16" t="n">
-        <v>230.1794491819377</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T16" t="n">
-        <v>93.07904585119854</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U16" t="n">
-        <v>10.85835194379454</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V16" t="n">
-        <v>10.85835194379454</v>
+        <v>99.63843430924186</v>
       </c>
       <c r="W16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>547.662729295094</v>
+        <v>1254.213192004034</v>
       </c>
       <c r="C17" t="n">
-        <v>547.662729295094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="D17" t="n">
-        <v>547.662729295094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E17" t="n">
-        <v>547.662729295094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F17" t="n">
-        <v>547.662729295094</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5539,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T17" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U17" t="n">
-        <v>1344.101260631174</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>1647.755047428196</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5870563847161</v>
+        <v>1647.755047428196</v>
       </c>
       <c r="X17" t="n">
-        <v>547.662729295094</v>
+        <v>1647.755047428196</v>
       </c>
       <c r="Y17" t="n">
-        <v>547.662729295094</v>
+        <v>1254.213192004034</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D18" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E18" t="n">
-        <v>110.4065414111382</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
@@ -5597,13 +5597,13 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L18" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M18" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N18" t="n">
         <v>1249.145305214519</v>
@@ -5618,28 +5618,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V18" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="E19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="F19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="G19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="H19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I19" t="n">
         <v>42.02425610119923</v>
@@ -5700,25 +5700,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>434.5758545062466</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>201.3969013219254</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.3969013219254</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1639.88911800351</v>
+        <v>738.7469327459049</v>
       </c>
       <c r="C20" t="n">
-        <v>1639.88911800351</v>
+        <v>738.7469327459049</v>
       </c>
       <c r="D20" t="n">
-        <v>1267.065153230734</v>
+        <v>365.9229679731285</v>
       </c>
       <c r="E20" t="n">
-        <v>872.2794333368408</v>
+        <v>365.9229679731285</v>
       </c>
       <c r="F20" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G20" t="n">
         <v>42.02425610119923</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2021.919258482017</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>2021.919258482017</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T20" t="n">
-        <v>2021.919258482017</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U20" t="n">
-        <v>2021.919258482017</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V20" t="n">
-        <v>2021.919258482017</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W20" t="n">
-        <v>2021.919258482017</v>
+        <v>1514.318928648574</v>
       </c>
       <c r="X20" t="n">
-        <v>1639.88911800351</v>
+        <v>1132.288788170067</v>
       </c>
       <c r="Y20" t="n">
-        <v>1639.88911800351</v>
+        <v>738.7469327459049</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>552.412421524471</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>552.412421524471</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>552.412421524471</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="E21" t="n">
-        <v>405.3844115813423</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="F21" t="n">
         <v>270.6906135312166</v>
@@ -5840,7 +5840,7 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M21" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N21" t="n">
         <v>1249.145305214519</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C22" t="n">
-        <v>1569.153559814029</v>
+        <v>195.0961492734365</v>
       </c>
       <c r="D22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K22" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L22" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M22" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N22" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O22" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V22" t="n">
-        <v>2086.562425401254</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W22" t="n">
-        <v>1800.406023918653</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X22" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y22" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1786.215572286826</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="C23" t="n">
-        <v>1404.281813619633</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="D23" t="n">
-        <v>1404.281813619633</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="E23" t="n">
-        <v>1377.917906530736</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F23" t="n">
-        <v>963.766715840906</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G23" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K23" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L23" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N23" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O23" t="n">
         <v>1778.623654917371</v>
@@ -6013,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S23" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T23" t="n">
-        <v>1786.215572286826</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U23" t="n">
-        <v>1786.215572286826</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V23" t="n">
-        <v>1786.215572286826</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="W23" t="n">
-        <v>1786.215572286826</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="X23" t="n">
-        <v>1786.215572286826</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="Y23" t="n">
-        <v>1786.215572286826</v>
+        <v>1599.886427633425</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C24" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D24" t="n">
-        <v>161.3375945908657</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E24" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F24" t="n">
         <v>42.02425610119923</v>
@@ -6080,40 +6080,40 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N24" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O24" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V24" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X24" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y24" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1917.657436375581</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>1748.041466837262</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>1594.969573665025</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K25" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L25" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M25" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N25" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O25" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V25" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W25" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X25" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1174.918351476001</v>
+        <v>374.84553050389</v>
       </c>
       <c r="C26" t="n">
-        <v>809.6339407678688</v>
+        <v>374.84553050389</v>
       </c>
       <c r="D26" t="n">
-        <v>436.8099759950924</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E26" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F26" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6226,19 +6226,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J26" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K26" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M26" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N26" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O26" t="n">
         <v>1778.623654917371</v>
@@ -6256,22 +6256,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T26" t="n">
-        <v>1823.345543186168</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U26" t="n">
-        <v>1568.460206900163</v>
+        <v>1467.90159017451</v>
       </c>
       <c r="V26" t="n">
-        <v>1568.460206900163</v>
+        <v>1130.922316070451</v>
       </c>
       <c r="W26" t="n">
-        <v>1568.460206900163</v>
+        <v>768.387385928052</v>
       </c>
       <c r="X26" t="n">
-        <v>1568.460206900163</v>
+        <v>768.387385928052</v>
       </c>
       <c r="Y26" t="n">
-        <v>1174.918351476001</v>
+        <v>374.84553050389</v>
       </c>
     </row>
     <row r="27">
@@ -6287,19 +6287,19 @@
         <v>300.1762316006536</v>
       </c>
       <c r="D27" t="n">
-        <v>161.3375945908657</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="E27" t="n">
-        <v>42.02425610119923</v>
+        <v>153.1482216575249</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02425610119923</v>
+        <v>153.1482216575249</v>
       </c>
       <c r="G27" t="n">
-        <v>42.02425610119923</v>
+        <v>153.1482216575249</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02425610119923</v>
+        <v>53.2103642042229</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6314,16 +6314,16 @@
         <v>331.768955194494</v>
       </c>
       <c r="M27" t="n">
-        <v>816.8023087047204</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N27" t="n">
-        <v>1328.067954827843</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O27" t="n">
-        <v>1720.267905611993</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
-        <v>2022.363824887691</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>1974.744087306132</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1752.708928498409</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>436.8099759950924</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="C29" t="n">
-        <v>436.8099759950924</v>
+        <v>884.0756892677164</v>
       </c>
       <c r="D29" t="n">
-        <v>436.8099759950924</v>
+        <v>511.2517244949399</v>
       </c>
       <c r="E29" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H29" t="n">
         <v>42.02425610119923</v>
@@ -6463,19 +6463,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6490,25 +6490,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>1912.397860238076</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T29" t="n">
-        <v>1912.397860238076</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U29" t="n">
-        <v>1912.397860238076</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V29" t="n">
-        <v>1575.418586134017</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W29" t="n">
-        <v>1212.883655991618</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X29" t="n">
-        <v>830.8535155131115</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y29" t="n">
-        <v>830.8535155131115</v>
+        <v>1266.009447934909</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C30" t="n">
-        <v>317.7807660210434</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D30" t="n">
-        <v>317.7807660210434</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E30" t="n">
-        <v>170.7527560779147</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F30" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
         <v>42.02425610119923</v>
@@ -6542,52 +6542,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L30" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M30" t="n">
-        <v>1182.624153874836</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N30" t="n">
-        <v>1693.889799997958</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O30" t="n">
-        <v>2086.089750782109</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P30" t="n">
-        <v>2101.212805059961</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y30" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="C31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="E31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="F31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H31" t="n">
         <v>42.02425610119923</v>
@@ -6645,28 +6645,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>574.0835013471317</v>
+        <v>488.5871408328255</v>
       </c>
       <c r="S31" t="n">
-        <v>360.3737387508193</v>
+        <v>488.5871408328255</v>
       </c>
       <c r="T31" t="n">
-        <v>360.3737387508193</v>
+        <v>488.5871408328255</v>
       </c>
       <c r="U31" t="n">
-        <v>73.18349923991912</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="V31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="W31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1191.567699435062</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="C32" t="n">
-        <v>809.6339407678688</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="D32" t="n">
-        <v>436.8099759950924</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K32" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M32" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N32" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O32" t="n">
         <v>1778.623654917371</v>
@@ -6724,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U32" t="n">
-        <v>1585.109554859223</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V32" t="n">
-        <v>1585.109554859223</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W32" t="n">
-        <v>1585.109554859223</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="X32" t="n">
-        <v>1585.109554859223</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="Y32" t="n">
-        <v>1191.567699435062</v>
+        <v>630.9454414382152</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C33" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D33" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E33" t="n">
-        <v>110.4065414111382</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>271.5148086613879</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="L33" t="n">
-        <v>637.3366538315036</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N33" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O33" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P33" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y33" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2009.415692497166</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>1722.225452986266</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.225452986266</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X34" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>764.7831240489911</v>
+        <v>123.9003967680534</v>
       </c>
       <c r="C35" t="n">
-        <v>764.7831240489911</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D35" t="n">
-        <v>391.9591592762147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E35" t="n">
-        <v>391.9591592762147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F35" t="n">
-        <v>391.9591592762147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G35" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
         <v>354.1631724187877</v>
@@ -6961,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U35" t="n">
-        <v>1846.327468773955</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V35" t="n">
-        <v>1509.348194669897</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W35" t="n">
-        <v>1146.813264527498</v>
+        <v>899.472392670722</v>
       </c>
       <c r="X35" t="n">
-        <v>764.7831240489911</v>
+        <v>517.4422521922154</v>
       </c>
       <c r="Y35" t="n">
-        <v>764.7831240489911</v>
+        <v>123.9003967680534</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>621.2993471409599</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C36" t="n">
-        <v>621.2993471409599</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D36" t="n">
-        <v>620.7947068344101</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="E36" t="n">
-        <v>473.7666968912813</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>179.4432835279999</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>50.71478355128443</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
@@ -7022,10 +7022,10 @@
         <v>102.2784026343054</v>
       </c>
       <c r="L36" t="n">
-        <v>252.8463055811703</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M36" t="n">
-        <v>737.8796590913968</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N36" t="n">
         <v>1249.145305214519</v>
@@ -7043,25 +7043,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>2089.52275250925</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>1856.343799324929</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1191.567699435062</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="C38" t="n">
-        <v>809.6339407678688</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="D38" t="n">
-        <v>436.8099759950924</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="E38" t="n">
-        <v>42.02425610119923</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7201,25 +7201,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>2058.284837808946</v>
       </c>
       <c r="T38" t="n">
-        <v>2101.212805059961</v>
+        <v>1833.925891539957</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.212805059961</v>
+        <v>1833.925891539957</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.212805059961</v>
+        <v>1833.925891539957</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.212805059961</v>
+        <v>1833.925891539957</v>
       </c>
       <c r="X38" t="n">
-        <v>1979.153094377243</v>
+        <v>1833.925891539957</v>
       </c>
       <c r="Y38" t="n">
-        <v>1585.611238953081</v>
+        <v>1833.925891539957</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>624.2883738632869</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C39" t="n">
-        <v>462.5847011042416</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D39" t="n">
-        <v>323.7460640944537</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E39" t="n">
-        <v>176.7180541513249</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F39" t="n">
         <v>42.02425610119923</v>
@@ -7256,49 +7256,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L39" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O39" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T39" t="n">
-        <v>1862.35241483722</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U39" t="n">
-        <v>1643.85762243553</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V39" t="n">
-        <v>1415.461999883864</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W39" t="n">
-        <v>1174.146131117174</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X39" t="n">
-        <v>976.229142994969</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y39" t="n">
-        <v>783.7078166445478</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="C40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="D40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="E40" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>1814.022565549061</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="W40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="X40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
       <c r="Y40" t="n">
-        <v>1569.153559814029</v>
+        <v>338.2363147372019</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1223.785131457699</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="C41" t="n">
-        <v>1223.785131457699</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="D41" t="n">
-        <v>850.9611666849221</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E41" t="n">
-        <v>456.1754467910289</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F41" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H41" t="n">
         <v>42.02425610119923</v>
@@ -7435,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="X41" t="n">
-        <v>2011.37052639988</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="Y41" t="n">
-        <v>1617.828670975718</v>
+        <v>1163.773481822479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7502,10 +7502,10 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N42" t="n">
-        <v>1551.241224490216</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O42" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P42" t="n">
         <v>1943.441175274367</v>
@@ -7514,28 +7514,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R42" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S42" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T42" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W42" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X42" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y42" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K43" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L43" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M43" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N43" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O43" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.477500618384</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W43" t="n">
-        <v>1840.477500618384</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>1609.22503651376</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>850.9611666849221</v>
+        <v>1129.603253943859</v>
       </c>
       <c r="C44" t="n">
-        <v>850.9611666849221</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="D44" t="n">
-        <v>850.9611666849221</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E44" t="n">
-        <v>456.1754467910289</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F44" t="n">
+        <v>374.84553050389</v>
+      </c>
+      <c r="G44" t="n">
+        <v>374.84553050389</v>
+      </c>
+      <c r="H44" t="n">
         <v>42.02425610119923</v>
       </c>
-      <c r="G44" t="n">
-        <v>42.02425610119928</v>
-      </c>
-      <c r="H44" t="n">
-        <v>42.02425610119928</v>
-      </c>
       <c r="I44" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
         <v>354.1631724187877</v>
@@ -7672,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>1823.345543186168</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U44" t="n">
-        <v>1595.526237305828</v>
+        <v>1829.117458190317</v>
       </c>
       <c r="V44" t="n">
-        <v>1595.526237305828</v>
+        <v>1492.138184086258</v>
       </c>
       <c r="W44" t="n">
-        <v>1232.991307163429</v>
+        <v>1129.603253943859</v>
       </c>
       <c r="X44" t="n">
-        <v>850.9611666849221</v>
+        <v>1129.603253943859</v>
       </c>
       <c r="Y44" t="n">
-        <v>850.9611666849221</v>
+        <v>1129.603253943859</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C45" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D45" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E45" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F45" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G45" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H45" t="n">
         <v>110.4065414111382</v>
@@ -7727,52 +7727,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M45" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N45" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O45" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P45" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1253.053530380276</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X45" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y45" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
         <v>42.02425610119923</v>
@@ -7842,16 +7842,16 @@
         <v>286.8932618362315</v>
       </c>
       <c r="V46" t="n">
-        <v>194.0332703398804</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W46" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>244.4743776485593</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>184.8665114499773</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>242.4445403651401</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O3" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>316.6434973364323</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>236.9605242319105</v>
+        <v>543.4252385523532</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423243</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8455,22 +8455,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>289.4230774940994</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8534,25 +8534,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>176.0977499560457</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>327.2896114605463</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>317.2001799443226</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8771,22 +8771,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7255684640984</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>176.0977499560457</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>244.5836053215751</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>317.4016976613613</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9008,25 +9008,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>181.3787780550041</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>251.2133018590716</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N15" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9245,16 +9245,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9488,10 +9488,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>217.0424937332492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9728,16 +9728,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
@@ -9962,7 +9962,7 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>193.3806259623375</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10208,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
         <v>421.3890363425141</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>264.0849600220859</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10445,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10670,13 +10670,13 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>405.7168621786896</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10843,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10904,13 +10904,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>217.0424937332492</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11074,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11150,13 +11150,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.0556164367791</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11387,16 +11387,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22549,13 +22549,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -22564,7 +22564,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>99.7012483763921</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886716</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>223.1801815435432</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>258.6593841725437</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.0958490560165</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.9847283299508</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>15.54209281995534</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>156.773404826082</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -22728,7 +22728,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>208.9053428841169</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>5.561951623281288</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -22801,10 +22801,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>299.6745103965911</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.6272863185178</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8770375724886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15.54209281995534</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>51.06885349824287</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>155.9458157924987</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>49.32288970647693</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.86671378948517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22953,19 +22953,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>90.8620597232719</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>155.3308807972808</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -23077,19 +23077,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>149.7462258451494</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>270.0559819687424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>91.58892292980646</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>90.38226702871759</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>135.5737895558091</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,19 +23190,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>90.8620597232719</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839672</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>11.2625539964817</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23266,19 +23266,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.1243954182813</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193.7636623612321</v>
+        <v>286.9943740801587</v>
       </c>
       <c r="I11" t="n">
-        <v>35.3596275058602</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>27.43752473892757</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>67.24779789449683</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>80.58044518024118</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>90.38226702871762</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>75.84326567291757</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>202.9198501474611</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>51.88954841882537</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
@@ -23545,25 +23545,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>102.5649019051211</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>116.6070836257142</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3572367340231</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -23624,25 +23624,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>119.3522551778452</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>60.20841894355161</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>54.8667137894852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>75.84326567291757</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>202.9198501474611</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>226.2568010418127</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23734,7 +23734,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23743,16 +23743,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>292.1583437298185</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>282.2547552549957</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -23831,7 +23831,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>58.11961704418519</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -23940,13 +23940,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>73.46009459787305</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>89.3499540297214</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.23129252694044</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
@@ -24031,13 +24031,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.62719199312433</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>108.2594887509474</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>77.04066840576942</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -24183,16 +24183,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>243.6240755350415</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24208,13 +24208,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>364.7375946769458</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>22.65305332669641</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -24293,10 +24293,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>124.9310703838086</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24420,13 +24420,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24445,13 +24445,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>16.48285447947018</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
@@ -24460,7 +24460,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>122.5623262479026</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -24527,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -24539,10 +24539,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>56.62421543484618</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -24657,19 +24657,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X28" t="n">
-        <v>103.7359088872866</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>255.7957306438147</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -24697,7 +24697,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.16179388138808</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
@@ -24739,7 +24739,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>17.42848907618585</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>142.7610139533483</v>
@@ -24885,10 +24885,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>63.38516666260247</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
         <v>230.8471636524779</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.2803006898289</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24919,25 +24919,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>238.5982112857692</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>89.61605102163082</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25004,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -25016,7 +25016,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25128,7 +25128,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>178.1199901481585</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25156,10 +25156,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>297.0570418203351</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -25168,10 +25168,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>395.0004541957525</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>136.9506567362058</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>90.33485670318458</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>199.9995129451452</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>142.8579980374446</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>252.3364829231459</v>
@@ -25456,10 +25456,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>257.3707254978302</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25475,13 +25475,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>101.5979585925483</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25569,7 +25569,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -25605,10 +25605,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>50.82962237196062</v>
       </c>
       <c r="V40" t="n">
-        <v>15.7076357194797</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>328.6378755674351</v>
       </c>
       <c r="X41" t="n">
-        <v>289.2659832002406</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>127.5597892130953</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -25845,13 +25845,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25867,22 +25867,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>26.79537010160848</v>
+        <v>205.0774463284967</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -25952,16 +25952,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>169.5644485789557</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>166.196559815774</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387629.7420854318</v>
+        <v>664393.3834058412</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387629.7420854318</v>
+        <v>664393.3834058413</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387629.7420854319</v>
+        <v>664393.3834058414</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387629.7420854319</v>
+        <v>664393.3834058413</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387629.742085432</v>
+        <v>664393.3834058412</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664393.3834058413</v>
+        <v>664393.3834058414</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664393.3834058414</v>
+        <v>664393.3834058413</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664393.3834058412</v>
+        <v>664393.3834058413</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664393.3834058413</v>
+        <v>664393.3834058414</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664393.3834058413</v>
+        <v>664393.3834058414</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664393.3834058412</v>
+        <v>664393.3834058413</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71058.2960261665</v>
+        <v>121781.1322843363</v>
       </c>
       <c r="C2" t="n">
-        <v>71058.2960261665</v>
+        <v>121781.1322843362</v>
       </c>
       <c r="D2" t="n">
-        <v>71058.2960261665</v>
+        <v>121781.1322843363</v>
       </c>
       <c r="E2" t="n">
-        <v>71058.29602616647</v>
+        <v>121781.1322843363</v>
       </c>
       <c r="F2" t="n">
-        <v>71058.29602616647</v>
+        <v>121781.1322843363</v>
       </c>
       <c r="G2" t="n">
         <v>121781.1322843363</v>
@@ -26334,10 +26334,10 @@
         <v>121781.1322843363</v>
       </c>
       <c r="I2" t="n">
+        <v>121781.1322843363</v>
+      </c>
+      <c r="J2" t="n">
         <v>121781.1322843362</v>
-      </c>
-      <c r="J2" t="n">
-        <v>121781.1322843363</v>
       </c>
       <c r="K2" t="n">
         <v>121781.1322843363</v>
@@ -26352,10 +26352,10 @@
         <v>121781.1322843363</v>
       </c>
       <c r="O2" t="n">
-        <v>121781.1322843362</v>
+        <v>121781.1322843363</v>
       </c>
       <c r="P2" t="n">
-        <v>121781.1322843362</v>
+        <v>121781.1322843363</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>176041.1847175274</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106776.3355122783</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>35512.78294977724</v>
+        <v>137442.4307917771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>93751.32501729493</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6616.579535699273</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="C4" t="n">
-        <v>6616.579535699274</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="D4" t="n">
-        <v>6616.579535699273</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="E4" t="n">
-        <v>6616.579535699274</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="F4" t="n">
-        <v>6616.579535699274</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="G4" t="n">
         <v>11603.65937297562</v>
@@ -26441,13 +26441,13 @@
         <v>11603.65937297562</v>
       </c>
       <c r="J4" t="n">
-        <v>11603.65937297561</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="K4" t="n">
         <v>11603.65937297562</v>
       </c>
       <c r="L4" t="n">
-        <v>11603.65937297561</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="M4" t="n">
         <v>11603.65937297562</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41879.94747728385</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="C5" t="n">
-        <v>41879.94747728385</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="D5" t="n">
-        <v>41879.94747728385</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>8252.347477283849</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="F5" t="n">
-        <v>8252.347477283849</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="G5" t="n">
         <v>31938.43463691141</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22924.27446756983</v>
+        <v>-139549.3359295839</v>
       </c>
       <c r="C6" t="n">
-        <v>22561.76901318337</v>
+        <v>36491.84878794341</v>
       </c>
       <c r="D6" t="n">
-        <v>22561.76901318337</v>
+        <v>36491.84878794345</v>
       </c>
       <c r="E6" t="n">
-        <v>56189.36901318334</v>
+        <v>70119.44878794345</v>
       </c>
       <c r="F6" t="n">
-        <v>56189.36901318334</v>
+        <v>70119.4487879435</v>
       </c>
       <c r="G6" t="n">
-        <v>-28537.29723782907</v>
+        <v>70119.44878794345</v>
       </c>
       <c r="H6" t="n">
-        <v>78239.0382744493</v>
+        <v>70119.44878794345</v>
       </c>
       <c r="I6" t="n">
-        <v>78239.03827444918</v>
+        <v>70119.44878794347</v>
       </c>
       <c r="J6" t="n">
-        <v>42726.25532467203</v>
+        <v>-67322.98200383375</v>
       </c>
       <c r="K6" t="n">
-        <v>78239.03827444924</v>
+        <v>70119.44878794347</v>
       </c>
       <c r="L6" t="n">
-        <v>78239.03827444922</v>
+        <v>70119.44878794343</v>
       </c>
       <c r="M6" t="n">
-        <v>78239.03827444922</v>
+        <v>70119.44878794343</v>
       </c>
       <c r="N6" t="n">
-        <v>78239.03827444931</v>
+        <v>70119.4487879435</v>
       </c>
       <c r="O6" t="n">
-        <v>-15512.28674284571</v>
+        <v>70119.44878794345</v>
       </c>
       <c r="P6" t="n">
-        <v>78239.03827444922</v>
+        <v>70119.44878794345</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="G4" t="n">
         <v>525.3032012649903</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7293992974318</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>57.51958086843889</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>69.38260888833736</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7293992974318</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O3" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>135.7293992974318</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7293992974318</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>130.2453831642022</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>130.2453831642022</v>
+        <v>436.7100974846449</v>
       </c>
       <c r="O6" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>135.7293992974318</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974318</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>97.86286533098477</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35254,25 +35254,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>135.7293992974318</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>69.38260888833734</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>135.7293992974318</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>135.7293992974317</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>135.7293992974317</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>130.2453831642022</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>135.7293992974317</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>69.3826088883374</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>135.7293992974317</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>130.2453831642022</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>69.38260888833739</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>135.7293992974317</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N15" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36208,10 +36208,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>101.5585911716093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36448,16 +36448,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
         <v>242.5660323684674</v>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>489.93268031336</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N27" t="n">
         <v>516.4299455789112</v>
@@ -36694,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.64543451744501</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
@@ -36928,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
         <v>242.5660323684674</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37165,10 +37165,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>299.0017211109813</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
@@ -37563,7 +37563,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>489.93268031336</v>
+        <v>101.5585911716093</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37642,7 +37642,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37870,13 +37870,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3404753690708</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38107,16 +38107,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
